--- a/Publications sigles.xlsx
+++ b/Publications sigles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19672" windowHeight="9660"/>
+    <workbookView windowWidth="19672" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="1778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="1845">
   <si>
     <t>KeySymbol</t>
   </si>
@@ -5364,6 +5364,207 @@
   </si>
   <si>
     <t>Instructions pour les vidéoconférences avec Zoom</t>
+  </si>
+  <si>
+    <t>T-ftr</t>
+  </si>
+  <si>
+    <t>Tract Futur</t>
+  </si>
+  <si>
+    <t>https://www.jw.org/finder?srcid=jwlshare&amp;wtlocale=F&amp;prefer=lang&amp;pub=T-ftr</t>
+  </si>
+  <si>
+    <t>https://www.jw.org/finder?srcid=jwlshare&amp;wtlocale=E&amp;prefer=lang&amp;pub=T-ftr</t>
+  </si>
+  <si>
+    <t>Tractado Futuro</t>
+  </si>
+  <si>
+    <t>https://www.jw.org/finder?srcid=jwlshare&amp;wtlocale=S&amp;prefer=lang&amp;pub=T-ftr</t>
+  </si>
+  <si>
+    <t>T-fam</t>
+  </si>
+  <si>
+    <t>Tract Famille</t>
+  </si>
+  <si>
+    <t>https://www.jw.org/finder?srcid=jwlshare&amp;wtlocale=F&amp;prefer=lang&amp;pub=T-fam</t>
+  </si>
+  <si>
+    <t>Tract Family</t>
+  </si>
+  <si>
+    <t>https://www.jw.org/finder?srcid=jwlshare&amp;wtlocale=E&amp;prefer=lang&amp;pub=T-fam</t>
+  </si>
+  <si>
+    <t>Tractado Familia</t>
+  </si>
+  <si>
+    <t>https://www.jw.org/finder?srcid=jwlshare&amp;wtlocale=S&amp;prefer=lang&amp;pub=T-fam</t>
+  </si>
+  <si>
+    <t>T-god</t>
+  </si>
+  <si>
+    <t>Tract Dieu</t>
+  </si>
+  <si>
+    <t>https://www.jw.org/finder?srcid=jwlshare&amp;wtlocale=F&amp;prefer=lang&amp;pub=T-god</t>
+  </si>
+  <si>
+    <t>Tract God</t>
+  </si>
+  <si>
+    <t>https://www.jw.org/finder?srcid=jwlshare&amp;wtlocale=E&amp;prefer=lang&amp;pub=T-god</t>
+  </si>
+  <si>
+    <t>Tractado Dios</t>
+  </si>
+  <si>
+    <t>https://www.jw.org/finder?srcid=jwlshare&amp;wtlocale=S&amp;prefer=lang&amp;pub=T-god</t>
+  </si>
+  <si>
+    <t>T-pry</t>
+  </si>
+  <si>
+    <t>Tract Prière</t>
+  </si>
+  <si>
+    <t>https://www.jw.org/finder?srcid=jwlshare&amp;wtlocale=F&amp;prefer=lang&amp;pub=T-pry</t>
+  </si>
+  <si>
+    <t>Tract Prayer</t>
+  </si>
+  <si>
+    <t>https://www.jw.org/finder?srcid=jwlshare&amp;wtlocale=E&amp;prefer=lang&amp;pub=T-pry</t>
+  </si>
+  <si>
+    <t>Tractado Oración</t>
+  </si>
+  <si>
+    <t>https://www.jw.org/finder?srcid=jwlshare&amp;wtlocale=S&amp;prefer=lang&amp;pub=T-pry</t>
+  </si>
+  <si>
+    <t>T-jss</t>
+  </si>
+  <si>
+    <t>Tract Jésus</t>
+  </si>
+  <si>
+    <t>https://www.jw.org/finder?srcid=jwlshare&amp;wtlocale=F&amp;prefer=lang&amp;pub=T-jss</t>
+  </si>
+  <si>
+    <t>https://www.jw.org/finder?srcid=jwlshare&amp;wtlocale=E&amp;prefer=lang&amp;pub=T-jss</t>
+  </si>
+  <si>
+    <t>Tractado Jesús</t>
+  </si>
+  <si>
+    <t>https://www.jw.org/finder?srcid=jwlshare&amp;wtlocale=S&amp;prefer=lang&amp;pub=T-jss</t>
+  </si>
+  <si>
+    <t>T-kng</t>
+  </si>
+  <si>
+    <t>Tract Royaume</t>
+  </si>
+  <si>
+    <t>https://www.jw.org/finder?srcid=jwlshare&amp;wtlocale=F&amp;prefer=lang&amp;pub=T-kng</t>
+  </si>
+  <si>
+    <t>Tract Kingdom</t>
+  </si>
+  <si>
+    <t>https://www.jw.org/finder?srcid=jwlshare&amp;wtlocale=E&amp;prefer=lang&amp;pub=T-kng</t>
+  </si>
+  <si>
+    <t>Tractado Reino</t>
+  </si>
+  <si>
+    <t>https://www.jw.org/finder?srcid=jwlshare&amp;wtlocale=S&amp;prefer=lang&amp;pub=T-kng</t>
+  </si>
+  <si>
+    <t>T-sfr</t>
+  </si>
+  <si>
+    <t>Tract Souffrance</t>
+  </si>
+  <si>
+    <t>https://www.jw.org/finder?srcid=jwlshare&amp;wtlocale=F&amp;prefer=lang&amp;pub=T-sfr</t>
+  </si>
+  <si>
+    <t>Tract Suffering</t>
+  </si>
+  <si>
+    <t>https://www.jw.org/finder?srcid=jwlshare&amp;wtlocale=E&amp;prefer=lang&amp;pub=T-sfr</t>
+  </si>
+  <si>
+    <t>Tractado Suffrimientos</t>
+  </si>
+  <si>
+    <t>https://www.jw.org/finder?srcid=jwlshare&amp;wtlocale=S&amp;prefer=lang&amp;pub=T-sfr</t>
+  </si>
+  <si>
+    <t>T-dth</t>
+  </si>
+  <si>
+    <t>Tract Mort</t>
+  </si>
+  <si>
+    <t>https://www.jw.org/finder?srcid=jwlshare&amp;wtlocale=F&amp;prefer=lang&amp;pub=T-dth</t>
+  </si>
+  <si>
+    <t>Tract Death</t>
+  </si>
+  <si>
+    <t>https://www.jw.org/finder?srcid=jwlshare&amp;wtlocale=E&amp;prefer=lang&amp;pub=T-dth</t>
+  </si>
+  <si>
+    <t>Tractado Muerte</t>
+  </si>
+  <si>
+    <t>https://www.jw.org/finder?srcid=jwlshare&amp;wtlocale=S&amp;prefer=lang&amp;pub=T-dth</t>
+  </si>
+  <si>
+    <t>T-rlg</t>
+  </si>
+  <si>
+    <t>Tract Religions</t>
+  </si>
+  <si>
+    <t>https://www.jw.org/finder?srcid=jwlshare&amp;wtlocale=F&amp;prefer=lang&amp;pub=T-rlg</t>
+  </si>
+  <si>
+    <t>https://www.jw.org/finder?srcid=jwlshare&amp;wtlocale=E&amp;prefer=lang&amp;pub=T-rlg</t>
+  </si>
+  <si>
+    <t>Tractado Religiones</t>
+  </si>
+  <si>
+    <t>https://www.jw.org/finder?srcid=jwlshare&amp;wtlocale=S&amp;prefer=lang&amp;pub=T-rlg</t>
+  </si>
+  <si>
+    <t>wcg</t>
+  </si>
+  <si>
+    <t>Marche courageusement avec Dieu</t>
+  </si>
+  <si>
+    <t>https://www.jw.org/finder?srcid=jwlshare&amp;wtlocale=F&amp;prefer=lang&amp;pub=wcg</t>
+  </si>
+  <si>
+    <t>Walk Courageously with God</t>
+  </si>
+  <si>
+    <t>https://www.jw.org/finder?srcid=jwlshare&amp;wtlocale=E&amp;prefer=lang&amp;pub=wcg</t>
+  </si>
+  <si>
+    <t>Seamos valientes al andar con Dios</t>
+  </si>
+  <si>
+    <t>https://www.jw.org/finder?srcid=jwlshare&amp;wtlocale=S&amp;prefer=lang&amp;pub=wcg</t>
   </si>
 </sst>
 </file>
@@ -7314,14 +7515,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K236"/>
+  <dimension ref="A1:K245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E149" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B230" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="H254" sqref="H254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="11.6"/>
@@ -13365,7 +13566,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="235" ht="14.25" spans="1:3">
+    <row r="235" ht="14.25" spans="1:7">
       <c r="A235" s="1" t="s">
         <v>1776</v>
       </c>
@@ -13373,9 +13574,237 @@
         <v>1777</v>
       </c>
       <c r="C235" s="6"/>
-    </row>
-    <row r="236" ht="14.25" spans="3:3">
-      <c r="C236" s="6"/>
+      <c r="G235" s="8"/>
+    </row>
+    <row r="236" ht="14.25" spans="1:7">
+      <c r="A236" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>1781</v>
+      </c>
+      <c r="F236" s="4" t="s">
+        <v>1782</v>
+      </c>
+      <c r="G236" s="8" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="237" ht="14.25" spans="1:7">
+      <c r="A237" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>1787</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F237" s="4" t="s">
+        <v>1789</v>
+      </c>
+      <c r="G237" s="8" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="238" ht="14.25" spans="1:7">
+      <c r="A238" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F238" s="4" t="s">
+        <v>1796</v>
+      </c>
+      <c r="G238" s="8" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="239" ht="14.25" spans="1:7">
+      <c r="A239" s="1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>1801</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>1802</v>
+      </c>
+      <c r="F239" s="4" t="s">
+        <v>1803</v>
+      </c>
+      <c r="G239" s="8" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="240" ht="14.25" spans="1:7">
+      <c r="A240" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>1808</v>
+      </c>
+      <c r="F240" s="4" t="s">
+        <v>1809</v>
+      </c>
+      <c r="G240" s="8" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="241" ht="14.25" spans="1:7">
+      <c r="A241" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F241" s="4" t="s">
+        <v>1816</v>
+      </c>
+      <c r="G241" s="8" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="242" ht="14.25" spans="1:7">
+      <c r="A242" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>1822</v>
+      </c>
+      <c r="F242" s="4" t="s">
+        <v>1823</v>
+      </c>
+      <c r="G242" s="8" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="243" ht="14.25" spans="1:7">
+      <c r="A243" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>1829</v>
+      </c>
+      <c r="F243" s="4" t="s">
+        <v>1830</v>
+      </c>
+      <c r="G243" s="8" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="244" ht="14.25" spans="1:7">
+      <c r="A244" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>1835</v>
+      </c>
+      <c r="F244" s="4" t="s">
+        <v>1836</v>
+      </c>
+      <c r="G244" s="8" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="245" ht="14.25" spans="1:7">
+      <c r="A245" s="1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>1841</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>1842</v>
+      </c>
+      <c r="F245" s="4" t="s">
+        <v>1843</v>
+      </c>
+      <c r="G245" s="8" t="s">
+        <v>1844</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:L236" etc:filterBottomFollowUsedRange="0">
